--- a/repair/apps/asmfa/tests/data/T3.2_Actors_w_errors.xlsx
+++ b/repair/apps/asmfa/tests/data/T3.2_Actors_w_errors.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ggr Projekte\REPAiR-Web\repair\apps\asmfa\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D769CFE-072E-49D3-B61D-9B4383C997DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F056D2-78CC-41E1-AF93-FEEFC35DEE1B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T3.2_Actors_w_errors" sheetId="1" r:id="rId1"/>
@@ -22,33 +22,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="687">
   <si>
-    <t>Company name</t>
-  </si>
-  <si>
-    <t>NACE Rev. 2Core code (4 digits)</t>
-  </si>
-  <si>
     <t>NACE Rev. 2Primary code(s)</t>
   </si>
   <si>
     <t>NACE Rev. 2Secondary code(s)</t>
   </si>
   <si>
-    <t>Cons.code</t>
-  </si>
-  <si>
-    <t>Lastavail.year</t>
-  </si>
-  <si>
-    <t>Operatingrevenue(Turnover)th EURLast avail. yr</t>
-  </si>
-  <si>
-    <t>Number of employeesLast avail. yr</t>
-  </si>
-  <si>
-    <t>BvD Independence Indicator</t>
-  </si>
-  <si>
     <t>GUO - Name</t>
   </si>
   <si>
@@ -73,18 +52,12 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Website address</t>
-  </si>
-  <si>
     <t>E-mail address</t>
   </si>
   <si>
     <t>Telephone number</t>
   </si>
   <si>
-    <t>BvD ID number</t>
-  </si>
-  <si>
     <t>National ID number</t>
   </si>
   <si>
@@ -109,12 +82,6 @@
     <t>No of recorded subsidiaries</t>
   </si>
   <si>
-    <t>Trade description (English)</t>
-  </si>
-  <si>
-    <t>Trade description in original language</t>
-  </si>
-  <si>
     <t>SPAARNELANDEN N.V.</t>
   </si>
   <si>
@@ -2081,12 +2048,45 @@
   </si>
   <si>
     <t>Het verrichten van werkzaamheden op het gebied van advies, verguningen, handel (inclusief im- en export), inname, transport en verwerking van gevaarlijke afvalstoffen en industrial cleaning.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>nace</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>BvDii</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>BvDid</t>
+  </si>
+  <si>
+    <t>description english</t>
+  </si>
+  <si>
+    <t>description original</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2923,111 +2923,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="B1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G1" t="s">
+        <v>680</v>
+      </c>
+      <c r="H1" t="s">
+        <v>681</v>
+      </c>
+      <c r="I1" t="s">
+        <v>682</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
+        <v>683</v>
+      </c>
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
+        <v>684</v>
+      </c>
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>685</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>3811</v>
@@ -3039,58 +3041,58 @@
         <v>8130</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>2016</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>219</v>
       </c>
       <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="X2" t="s">
         <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
       </c>
       <c r="Y2">
         <v>35253</v>
@@ -3108,84 +3110,84 @@
         <v>1</v>
       </c>
       <c r="AD2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>3811</v>
+      </c>
+      <c r="C3">
+        <v>3811</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" t="s">
         <v>49</v>
       </c>
-      <c r="B3">
-        <v>3811</v>
-      </c>
-      <c r="C3">
-        <v>3811</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="R3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
+      <c r="T3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" t="s">
+      <c r="U3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" t="s">
+      <c r="V3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" t="s">
-        <v>64</v>
-      </c>
       <c r="W3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z3">
         <v>120</v>
       </c>
       <c r="AA3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB3">
         <v>114</v>
@@ -3194,12 +3196,12 @@
         <v>0</v>
       </c>
       <c r="AE3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>3811</v>
@@ -3208,67 +3210,67 @@
         <v>3811</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>2016</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="Q4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="R4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="T4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="U4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="V4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="W4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z4">
         <v>107</v>
       </c>
       <c r="AA4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB4">
         <v>9</v>
@@ -3277,12 +3279,12 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>243432432</v>
@@ -3294,7 +3296,7 @@
         <v>39008129</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>2014</v>
@@ -3306,49 +3308,49 @@
         <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y5">
         <v>18148.038</v>
@@ -3366,15 +3368,15 @@
         <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>3811</v>
@@ -3386,7 +3388,7 @@
         <v>3821</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <v>2009</v>
@@ -3398,43 +3400,43 @@
         <v>29</v>
       </c>
       <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" t="s">
+        <v>90</v>
+      </c>
+      <c r="W6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>97</v>
-      </c>
-      <c r="R6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T6" t="s">
-        <v>99</v>
-      </c>
-      <c r="U6" t="s">
-        <v>100</v>
-      </c>
-      <c r="V6" t="s">
-        <v>101</v>
-      </c>
-      <c r="W6" t="s">
-        <v>45</v>
-      </c>
       <c r="X6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y6">
         <v>31223.044000000002</v>
@@ -3452,15 +3454,15 @@
         <v>0</v>
       </c>
       <c r="AD6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="AE6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>3811</v>
@@ -3472,67 +3474,67 @@
         <v>38213832</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <v>2016</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="Q7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="R7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="T7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="U7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="V7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="W7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z7">
         <v>24</v>
       </c>
       <c r="AA7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB7">
         <v>822</v>
@@ -3541,12 +3543,12 @@
         <v>0</v>
       </c>
       <c r="AE7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>3811</v>
@@ -3555,67 +3557,67 @@
         <v>3811</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <v>2017</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" t="s">
         <v>108</v>
       </c>
-      <c r="O8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>119</v>
-      </c>
       <c r="R8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="T8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="U8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="V8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="W8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z8">
         <v>23</v>
       </c>
       <c r="AA8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB8">
         <v>114</v>
@@ -3624,12 +3626,12 @@
         <v>0</v>
       </c>
       <c r="AE8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <v>3811</v>
@@ -3638,61 +3640,61 @@
         <v>3811</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>2017</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>22</v>
       </c>
       <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>118</v>
+      </c>
+      <c r="R9" t="s">
+        <v>119</v>
+      </c>
+      <c r="T9" t="s">
+        <v>120</v>
+      </c>
+      <c r="U9" t="s">
+        <v>121</v>
+      </c>
+      <c r="V9" t="s">
+        <v>122</v>
+      </c>
+      <c r="W9" t="s">
         <v>34</v>
       </c>
-      <c r="J9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" t="s">
-        <v>125</v>
-      </c>
-      <c r="M9" t="s">
-        <v>126</v>
-      </c>
-      <c r="N9" t="s">
-        <v>127</v>
-      </c>
-      <c r="O9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>129</v>
-      </c>
-      <c r="R9" t="s">
-        <v>130</v>
-      </c>
-      <c r="T9" t="s">
-        <v>131</v>
-      </c>
-      <c r="U9" t="s">
-        <v>132</v>
-      </c>
-      <c r="V9" t="s">
-        <v>133</v>
-      </c>
-      <c r="W9" t="s">
-        <v>45</v>
-      </c>
       <c r="X9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z9">
         <v>22</v>
@@ -3704,12 +3706,12 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B10">
         <v>3811</v>
@@ -3718,61 +3720,61 @@
         <v>3811</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F10">
         <v>2016</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="N10" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="Q10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="R10" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="T10" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="U10" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="V10" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="W10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z10">
         <v>15</v>
@@ -3787,12 +3789,12 @@
         <v>2</v>
       </c>
       <c r="AE10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B11">
         <v>3811</v>
@@ -3804,55 +3806,55 @@
         <v>4120</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>2016</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>11</v>
       </c>
       <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M11" t="s">
+        <v>138</v>
+      </c>
+      <c r="N11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>141</v>
+      </c>
+      <c r="R11" t="s">
+        <v>142</v>
+      </c>
+      <c r="U11" t="s">
+        <v>143</v>
+      </c>
+      <c r="V11" t="s">
+        <v>144</v>
+      </c>
+      <c r="W11" t="s">
         <v>34</v>
       </c>
-      <c r="K11" t="s">
-        <v>148</v>
-      </c>
-      <c r="M11" t="s">
-        <v>149</v>
-      </c>
-      <c r="N11" t="s">
-        <v>150</v>
-      </c>
-      <c r="O11" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>152</v>
-      </c>
-      <c r="R11" t="s">
-        <v>153</v>
-      </c>
-      <c r="U11" t="s">
-        <v>154</v>
-      </c>
-      <c r="V11" t="s">
-        <v>155</v>
-      </c>
-      <c r="W11" t="s">
-        <v>45</v>
-      </c>
       <c r="X11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z11">
         <v>11</v>
@@ -3867,12 +3869,12 @@
         <v>0</v>
       </c>
       <c r="AE11" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B12">
         <v>3811</v>
@@ -3881,67 +3883,67 @@
         <v>3811</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F12">
         <v>2016</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <v>8</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="M12" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="Q12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="R12" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="T12" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="U12" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="V12" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="W12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X12" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z12">
         <v>8</v>
       </c>
       <c r="AA12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB12">
         <v>9</v>
@@ -3950,12 +3952,12 @@
         <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B13">
         <v>3811</v>
@@ -3964,61 +3966,61 @@
         <v>3811</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F13">
         <v>2017</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H13">
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Q13" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="R13" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="T13" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="U13" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="V13" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="W13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X13" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y13" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z13">
         <v>7</v>
@@ -4033,12 +4035,12 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B14">
         <v>3811</v>
@@ -4047,67 +4049,67 @@
         <v>3811</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>2012</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="Q14" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="R14" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="T14" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="U14" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="V14" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="W14" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z14">
         <v>5</v>
       </c>
       <c r="AA14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB14">
         <v>6</v>
@@ -4116,12 +4118,12 @@
         <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B15">
         <v>3811</v>
@@ -4133,67 +4135,67 @@
         <v>3821</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <v>2018</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="Q15" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="R15" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="T15" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="U15" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="V15" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="W15" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y15" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z15">
         <v>4</v>
       </c>
       <c r="AA15" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB15">
         <v>27</v>
@@ -4202,12 +4204,12 @@
         <v>0</v>
       </c>
       <c r="AE15" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B16">
         <v>3811</v>
@@ -4216,78 +4218,78 @@
         <v>3811</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>2017</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K16" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="Q16" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="R16" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="T16" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="U16" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="V16" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="W16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z16">
         <v>2</v>
       </c>
       <c r="AA16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
       <c r="AE16" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B17">
         <v>3811</v>
@@ -4296,58 +4298,58 @@
         <v>3811</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>2018</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>191</v>
+      </c>
+      <c r="M17" t="s">
+        <v>192</v>
+      </c>
+      <c r="N17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>194</v>
+      </c>
+      <c r="U17" t="s">
+        <v>195</v>
+      </c>
+      <c r="V17" t="s">
+        <v>196</v>
+      </c>
+      <c r="W17" t="s">
         <v>34</v>
       </c>
-      <c r="K17" t="s">
-        <v>202</v>
-      </c>
-      <c r="M17" t="s">
-        <v>203</v>
-      </c>
-      <c r="N17" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>205</v>
-      </c>
-      <c r="U17" t="s">
-        <v>206</v>
-      </c>
-      <c r="V17" t="s">
-        <v>207</v>
-      </c>
-      <c r="W17" t="s">
-        <v>45</v>
-      </c>
       <c r="X17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y17" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z17">
         <v>2</v>
       </c>
       <c r="AA17" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -4356,12 +4358,12 @@
         <v>0</v>
       </c>
       <c r="AE17" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B18">
         <v>3811</v>
@@ -4373,58 +4375,58 @@
         <v>38127112</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F18">
         <v>2018</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>199</v>
+      </c>
+      <c r="M18" t="s">
+        <v>200</v>
+      </c>
+      <c r="N18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>202</v>
+      </c>
+      <c r="U18" t="s">
+        <v>203</v>
+      </c>
+      <c r="V18" t="s">
+        <v>204</v>
+      </c>
+      <c r="W18" t="s">
         <v>34</v>
       </c>
-      <c r="K18" t="s">
-        <v>210</v>
-      </c>
-      <c r="M18" t="s">
-        <v>211</v>
-      </c>
-      <c r="N18" t="s">
-        <v>150</v>
-      </c>
-      <c r="O18" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>213</v>
-      </c>
-      <c r="U18" t="s">
-        <v>214</v>
-      </c>
-      <c r="V18" t="s">
-        <v>215</v>
-      </c>
-      <c r="W18" t="s">
-        <v>45</v>
-      </c>
       <c r="X18" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y18" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z18">
         <v>2</v>
       </c>
       <c r="AA18" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -4433,12 +4435,12 @@
         <v>0</v>
       </c>
       <c r="AE18" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B19">
         <v>3811</v>
@@ -4447,61 +4449,61 @@
         <v>3811</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F19">
         <v>2016</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="Q19" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="R19" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="U19" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="V19" s="3">
         <v>4.12E+16</v>
       </c>
       <c r="W19" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X19" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y19" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z19">
         <v>1</v>
       </c>
       <c r="AA19" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -4512,7 +4514,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B20">
         <v>3811</v>
@@ -4521,64 +4523,64 @@
         <v>3811</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>2011</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="N20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P20" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="Q20" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="R20" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="T20" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="U20" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="V20" s="3">
         <v>5.31E+19</v>
       </c>
       <c r="W20" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X20" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y20" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z20">
         <v>1</v>
       </c>
       <c r="AA20" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -4587,12 +4589,12 @@
         <v>0</v>
       </c>
       <c r="AE20" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B21">
         <v>3811</v>
@@ -4601,58 +4603,58 @@
         <v>3811</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F21">
         <v>2017</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P21" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="Q21" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="U21" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="V21" s="3">
         <v>6.16E+19</v>
       </c>
       <c r="W21" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X21" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y21" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z21">
         <v>1</v>
       </c>
       <c r="AA21" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -4661,12 +4663,12 @@
         <v>0</v>
       </c>
       <c r="AE21" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B22">
         <v>3811</v>
@@ -4675,58 +4677,58 @@
         <v>3811</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F22">
         <v>2016</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P22" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="Q22" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="U22" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V22" s="3">
         <v>6.72E+19</v>
       </c>
       <c r="W22" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X22" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y22" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z22">
         <v>1</v>
       </c>
       <c r="AA22" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -4735,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="AE22" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B23">
         <v>3811</v>
@@ -4749,58 +4751,58 @@
         <v>3811</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F23">
         <v>2018</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="N23" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P23" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="Q23" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="U23" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="V23" s="3">
         <v>6.76E+19</v>
       </c>
       <c r="W23" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X23" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y23" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z23">
         <v>1</v>
       </c>
       <c r="AA23" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -4809,12 +4811,12 @@
         <v>0</v>
       </c>
       <c r="AE23" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B24">
         <v>3811</v>
@@ -4823,61 +4825,61 @@
         <v>3811</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F24">
         <v>2017</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="N24" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P24" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Q24" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="T24" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="U24" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="V24" s="3">
         <v>6.86E+19</v>
       </c>
       <c r="W24" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X24" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y24" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z24">
         <v>1</v>
       </c>
       <c r="AA24" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -4886,12 +4888,12 @@
         <v>0</v>
       </c>
       <c r="AE24" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B25">
         <v>3811</v>
@@ -4903,64 +4905,64 @@
         <v>47894799</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F25">
         <v>2018</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="N25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P25" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="Q25" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="R25" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="T25" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="U25" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="V25" s="3">
         <v>7.07E+19</v>
       </c>
       <c r="W25" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X25" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y25" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
       <c r="AA25" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -4969,12 +4971,12 @@
         <v>0</v>
       </c>
       <c r="AE25" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B26">
         <v>3811</v>
@@ -4986,64 +4988,64 @@
         <v>3831</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F26">
         <v>2015</v>
       </c>
       <c r="G26" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J26" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="N26" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="O26" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P26" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="Q26" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="R26" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="T26" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="U26" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V26" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="W26" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X26" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y26">
         <v>28524.475999999999</v>
       </c>
       <c r="Z26" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA26">
         <v>23327.207999999999</v>
@@ -5055,15 +5057,15 @@
         <v>0</v>
       </c>
       <c r="AD26" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="AE26" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B27">
         <v>3811</v>
@@ -5072,64 +5074,64 @@
         <v>3811</v>
       </c>
       <c r="E27" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J27" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="N27" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P27" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="Q27" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="R27" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="T27" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="U27" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="V27" s="3">
         <v>6.5000000000000001E+28</v>
       </c>
       <c r="W27" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X27" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -5138,12 +5140,12 @@
         <v>0</v>
       </c>
       <c r="AE27" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B28">
         <v>3811</v>
@@ -5152,64 +5154,64 @@
         <v>3811</v>
       </c>
       <c r="E28" t="s">
+        <v>279</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" t="s">
         <v>290</v>
       </c>
-      <c r="G28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" t="s">
-        <v>301</v>
-      </c>
       <c r="K28" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="N28" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P28" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="Q28" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="R28" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="T28" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="U28" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="V28" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W28" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X28" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -5218,12 +5220,12 @@
         <v>0</v>
       </c>
       <c r="AE28" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B29">
         <v>3811</v>
@@ -5235,64 +5237,64 @@
         <v>5210</v>
       </c>
       <c r="E29" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J29" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="K29" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M29" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N29" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="O29" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P29" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="Q29" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="R29" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="T29" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="U29" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="V29" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W29" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X29" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y29" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA29" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB29">
         <v>2</v>
@@ -5301,12 +5303,12 @@
         <v>0</v>
       </c>
       <c r="AE29" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B30">
         <v>3811</v>
@@ -5318,64 +5320,64 @@
         <v>8129</v>
       </c>
       <c r="E30" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="K30" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="M30" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="N30" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="O30" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P30" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="Q30" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="R30" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="T30" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="U30" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="V30" s="3">
         <v>3.2199999999999999E+28</v>
       </c>
       <c r="W30" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X30" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB30">
         <v>2</v>
@@ -5384,12 +5386,12 @@
         <v>0</v>
       </c>
       <c r="AE30" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B31">
         <v>3811</v>
@@ -5401,61 +5403,61 @@
         <v>8130</v>
       </c>
       <c r="E31" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J31" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="K31" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="M31" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="N31" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P31" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="Q31" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="T31" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="U31" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="V31" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W31" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X31" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y31" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA31" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -5464,12 +5466,12 @@
         <v>0</v>
       </c>
       <c r="AE31" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B32">
         <v>3811</v>
@@ -5481,64 +5483,64 @@
         <v>33204221</v>
       </c>
       <c r="E32" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J32" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="K32" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M32" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="N32" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="O32" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P32" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="Q32" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="R32" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="T32" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="U32" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="V32" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W32" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X32" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y32" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA32" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -5547,12 +5549,12 @@
         <v>0</v>
       </c>
       <c r="AE32" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B33">
         <v>3811</v>
@@ -5564,61 +5566,61 @@
         <v>3812</v>
       </c>
       <c r="E33" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J33" t="s">
+        <v>328</v>
+      </c>
+      <c r="K33" t="s">
+        <v>338</v>
+      </c>
+      <c r="M33" t="s">
         <v>339</v>
       </c>
-      <c r="K33" t="s">
-        <v>349</v>
-      </c>
-      <c r="M33" t="s">
-        <v>350</v>
-      </c>
       <c r="N33" t="s">
+        <v>331</v>
+      </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>341</v>
+      </c>
+      <c r="T33" t="s">
+        <v>335</v>
+      </c>
+      <c r="U33" t="s">
         <v>342</v>
-      </c>
-      <c r="O33" t="s">
-        <v>38</v>
-      </c>
-      <c r="P33" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>352</v>
-      </c>
-      <c r="T33" t="s">
-        <v>346</v>
-      </c>
-      <c r="U33" t="s">
-        <v>353</v>
       </c>
       <c r="V33" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W33" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X33" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y33" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA33" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -5627,12 +5629,12 @@
         <v>0</v>
       </c>
       <c r="AE33" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B34">
         <v>3811</v>
@@ -5641,67 +5643,67 @@
         <v>3811</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F34">
         <v>2012</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J34" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="K34" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="M34" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="N34" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="O34" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P34" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="Q34" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="R34" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="T34" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="U34" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="V34" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="W34" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X34" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y34" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA34" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB34">
         <v>55</v>
@@ -5710,12 +5712,12 @@
         <v>0</v>
       </c>
       <c r="AE34" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B35">
         <v>3811</v>
@@ -5724,67 +5726,67 @@
         <v>3811</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F35">
         <v>2013</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J35" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="M35" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="N35" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="O35" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P35" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="Q35" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="R35" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="T35" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="U35" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="V35" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="W35" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X35" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y35" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA35" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB35">
         <v>822</v>
@@ -5793,12 +5795,12 @@
         <v>0</v>
       </c>
       <c r="AE35" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B36">
         <v>3811</v>
@@ -5807,64 +5809,64 @@
         <v>3811</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F36">
         <v>2018</v>
       </c>
       <c r="G36" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J36" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K36" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="M36" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="N36" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="O36" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P36" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="Q36" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="T36" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="U36" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="V36" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="W36" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X36" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y36" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA36" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB36">
         <v>27</v>
@@ -5873,12 +5875,12 @@
         <v>0</v>
       </c>
       <c r="AE36" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B37">
         <v>3811</v>
@@ -5887,64 +5889,64 @@
         <v>3811</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F37">
         <v>2018</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J37" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K37" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="M37" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="N37" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="O37" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P37" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="Q37" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="T37" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="U37" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="V37" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="W37" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X37" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y37" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z37" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA37" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB37">
         <v>27</v>
@@ -5953,12 +5955,12 @@
         <v>0</v>
       </c>
       <c r="AE37" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B38">
         <v>3811</v>
@@ -5967,67 +5969,67 @@
         <v>3811</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F38">
         <v>2013</v>
       </c>
       <c r="G38" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J38" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="M38" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="N38" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O38" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P38" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="Q38" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="R38" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="T38" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="U38" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="V38" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="W38" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X38" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y38" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z38" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA38" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB38">
         <v>822</v>
@@ -6036,12 +6038,12 @@
         <v>0</v>
       </c>
       <c r="AE38" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B39">
         <v>3811</v>
@@ -6050,67 +6052,67 @@
         <v>3811</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F39">
         <v>2013</v>
       </c>
       <c r="G39" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J39" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="N39" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="O39" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P39" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="Q39" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="R39" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="T39" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="U39" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="V39" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="W39" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X39" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y39" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA39" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB39">
         <v>822</v>
@@ -6119,12 +6121,12 @@
         <v>0</v>
       </c>
       <c r="AE39" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B40">
         <v>3811</v>
@@ -6136,61 +6138,61 @@
         <v>8130</v>
       </c>
       <c r="E40" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J40" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="K40" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="M40" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="N40" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="O40" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P40" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="Q40" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="T40" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="U40" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="V40" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W40" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X40" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y40" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z40" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA40" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -6199,12 +6201,12 @@
         <v>0</v>
       </c>
       <c r="AE40" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B41">
         <v>3811</v>
@@ -6213,64 +6215,64 @@
         <v>3811</v>
       </c>
       <c r="E41" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G41" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J41" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K41" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="M41" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="N41" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="O41" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P41" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="Q41" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="R41" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="T41" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="U41" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="V41" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W41" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X41" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y41" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA41" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -6279,12 +6281,12 @@
         <v>0</v>
       </c>
       <c r="AE41" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B42">
         <v>3811</v>
@@ -6293,64 +6295,64 @@
         <v>3811</v>
       </c>
       <c r="E42" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G42" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J42" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K42" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="M42" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="N42" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O42" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P42" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="Q42" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="R42" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="T42" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="U42" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="V42" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W42" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X42" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y42" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z42" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA42" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB42">
         <v>18</v>
@@ -6359,12 +6361,12 @@
         <v>0</v>
       </c>
       <c r="AE42" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B43">
         <v>3811</v>
@@ -6376,61 +6378,61 @@
         <v>38213900</v>
       </c>
       <c r="E43" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G43" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J43" t="s">
+        <v>408</v>
+      </c>
+      <c r="K43" t="s">
+        <v>417</v>
+      </c>
+      <c r="M43" t="s">
+        <v>418</v>
+      </c>
+      <c r="N43" t="s">
+        <v>47</v>
+      </c>
+      <c r="O43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" t="s">
         <v>419</v>
       </c>
-      <c r="K43" t="s">
-        <v>428</v>
-      </c>
-      <c r="M43" t="s">
-        <v>429</v>
-      </c>
-      <c r="N43" t="s">
-        <v>58</v>
-      </c>
-      <c r="O43" t="s">
-        <v>38</v>
-      </c>
-      <c r="P43" t="s">
-        <v>430</v>
-      </c>
       <c r="Q43" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="R43" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="U43" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="V43" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W43" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X43" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y43" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z43" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA43" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB43">
         <v>18</v>
@@ -6439,12 +6441,12 @@
         <v>0</v>
       </c>
       <c r="AE43" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B44">
         <v>3811</v>
@@ -6453,61 +6455,61 @@
         <v>3811</v>
       </c>
       <c r="E44" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G44" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I44" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K44" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="M44" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="N44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O44" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P44" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="Q44" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="R44" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="U44" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="V44" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W44" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X44" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y44" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA44" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB44">
         <v>18</v>
@@ -6516,12 +6518,12 @@
         <v>0</v>
       </c>
       <c r="AE44" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B45">
         <v>3811</v>
@@ -6530,61 +6532,61 @@
         <v>3811</v>
       </c>
       <c r="E45" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G45" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K45" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="M45" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="N45" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O45" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P45" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="Q45" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="R45" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="U45" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="V45" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W45" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X45" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y45" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA45" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB45">
         <v>18</v>
@@ -6593,12 +6595,12 @@
         <v>0</v>
       </c>
       <c r="AE45" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B46">
         <v>3811</v>
@@ -6607,61 +6609,61 @@
         <v>3811</v>
       </c>
       <c r="E46" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J46" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K46" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="M46" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="N46" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O46" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P46" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="Q46" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="R46" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="U46" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="V46" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W46" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X46" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y46" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z46" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA46" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB46">
         <v>18</v>
@@ -6670,12 +6672,12 @@
         <v>0</v>
       </c>
       <c r="AE46" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B47">
         <v>3811</v>
@@ -6687,61 +6689,61 @@
         <v>5210</v>
       </c>
       <c r="E47" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K47" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="M47" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="N47" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O47" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P47" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="Q47" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="T47" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="U47" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="V47" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W47" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X47" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y47" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z47" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA47" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB47">
         <v>18</v>
@@ -6750,12 +6752,12 @@
         <v>0</v>
       </c>
       <c r="AE47" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B48">
         <v>3811</v>
@@ -6764,64 +6766,64 @@
         <v>3811</v>
       </c>
       <c r="E48" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G48" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K48" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="M48" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="N48" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O48" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P48" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="Q48" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="R48" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="T48" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="U48" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="V48" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W48" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X48" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y48" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z48" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA48" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB48">
         <v>18</v>
@@ -6830,12 +6832,12 @@
         <v>0</v>
       </c>
       <c r="AE48" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B49">
         <v>3811</v>
@@ -6844,61 +6846,61 @@
         <v>3811</v>
       </c>
       <c r="E49" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G49" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H49" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K49" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="M49" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="N49" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O49" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P49" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="Q49" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="T49" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="U49" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="V49" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W49" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X49" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y49" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z49" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA49" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB49">
         <v>18</v>
@@ -6907,12 +6909,12 @@
         <v>0</v>
       </c>
       <c r="AE49" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B50">
         <v>3811</v>
@@ -6921,61 +6923,61 @@
         <v>3811</v>
       </c>
       <c r="E50" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G50" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I50" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K50" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="M50" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="N50" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O50" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P50" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="Q50" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="T50" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="U50" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="V50" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W50" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X50" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y50" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z50" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA50" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB50">
         <v>18</v>
@@ -6986,7 +6988,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B51">
         <v>3811</v>
@@ -6995,64 +6997,64 @@
         <v>3811</v>
       </c>
       <c r="E51" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G51" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H51" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J51" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K51" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="M51" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="N51" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O51" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P51" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="Q51" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="R51" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="T51" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="U51" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="V51" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W51" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X51" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y51" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z51" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA51" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB51">
         <v>18</v>
@@ -7063,7 +7065,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B52">
         <v>3811</v>
@@ -7072,61 +7074,61 @@
         <v>3811</v>
       </c>
       <c r="E52" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G52" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K52" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="M52" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="N52" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O52" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P52" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="Q52" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="T52" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="U52" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="V52" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W52" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X52" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y52" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA52" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB52">
         <v>18</v>
@@ -7137,7 +7139,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B53">
         <v>3811</v>
@@ -7149,58 +7151,58 @@
         <v>3821</v>
       </c>
       <c r="E53" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G53" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H53" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I53" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="K53" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="M53" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="N53" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="O53" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P53" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="Q53" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="U53" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="V53" s="3">
         <v>6.4899999999999997E+28</v>
       </c>
       <c r="W53" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X53" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y53" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z53" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA53" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB53">
         <v>0</v>
@@ -7209,12 +7211,12 @@
         <v>0</v>
       </c>
       <c r="AE53" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B54">
         <v>3811</v>
@@ -7226,61 +7228,61 @@
         <v>3900</v>
       </c>
       <c r="E54" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G54" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H54" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I54" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J54" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="K54" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="M54" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="N54" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="O54" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P54" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="Q54" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="T54" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="U54" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="V54" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W54" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X54" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y54" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z54" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA54" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB54">
         <v>0</v>
@@ -7289,12 +7291,12 @@
         <v>0</v>
       </c>
       <c r="AE54" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B55">
         <v>3811</v>
@@ -7306,61 +7308,61 @@
         <v>3900</v>
       </c>
       <c r="E55" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G55" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I55" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J55" t="s">
+        <v>487</v>
+      </c>
+      <c r="K55" t="s">
+        <v>496</v>
+      </c>
+      <c r="M55" t="s">
+        <v>497</v>
+      </c>
+      <c r="N55" t="s">
         <v>498</v>
       </c>
-      <c r="K55" t="s">
-        <v>507</v>
-      </c>
-      <c r="M55" t="s">
-        <v>508</v>
-      </c>
-      <c r="N55" t="s">
-        <v>509</v>
-      </c>
       <c r="O55" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P55" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="Q55" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="T55" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="U55" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="V55" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W55" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X55" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y55" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z55" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA55" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB55">
         <v>0</v>
@@ -7369,12 +7371,12 @@
         <v>0</v>
       </c>
       <c r="AE55" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B56">
         <v>3811</v>
@@ -7386,64 +7388,64 @@
         <v>3900</v>
       </c>
       <c r="E56" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G56" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H56" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I56" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J56" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K56" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="M56" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="N56" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O56" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P56" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="Q56" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="R56" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="T56" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="U56" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="V56" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W56" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X56" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y56" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z56" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA56" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB56">
         <v>18</v>
@@ -7452,12 +7454,12 @@
         <v>0</v>
       </c>
       <c r="AE56" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B57">
         <v>3811</v>
@@ -7469,64 +7471,64 @@
         <v>3900</v>
       </c>
       <c r="E57" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G57" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H57" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K57" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="M57" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="N57" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O57" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P57" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="Q57" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="R57" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="T57" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="U57" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="V57" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W57" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X57" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y57" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z57" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA57" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB57">
         <v>18</v>
@@ -7535,12 +7537,12 @@
         <v>0</v>
       </c>
       <c r="AE57" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B58">
         <v>3811</v>
@@ -7552,64 +7554,64 @@
         <v>3900</v>
       </c>
       <c r="E58" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G58" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H58" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I58" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J58" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K58" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="M58" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="N58" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O58" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P58" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="Q58" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="R58" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="T58" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="U58" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="V58" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W58" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X58" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y58" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z58" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA58" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB58">
         <v>18</v>
@@ -7618,12 +7620,12 @@
         <v>0</v>
       </c>
       <c r="AE58" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B59">
         <v>3811</v>
@@ -7635,64 +7637,64 @@
         <v>3900</v>
       </c>
       <c r="E59" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H59" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J59" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K59" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="M59" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="N59" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O59" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P59" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="Q59" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="R59" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="T59" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="U59" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="V59" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W59" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X59" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y59" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z59" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA59" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB59">
         <v>18</v>
@@ -7701,12 +7703,12 @@
         <v>0</v>
       </c>
       <c r="AE59" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B60">
         <v>3811</v>
@@ -7718,64 +7720,64 @@
         <v>38123832</v>
       </c>
       <c r="E60" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G60" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H60" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J60" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K60" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="M60" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="N60" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O60" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P60" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="Q60" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="R60" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="T60" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="U60" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="V60" s="3">
         <v>3.4400000000000001E+28</v>
       </c>
       <c r="W60" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X60" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y60" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z60" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA60" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB60">
         <v>18</v>
@@ -7784,12 +7786,12 @@
         <v>0</v>
       </c>
       <c r="AE60" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B61">
         <v>3811</v>
@@ -7801,67 +7803,67 @@
         <v>38213832</v>
       </c>
       <c r="E61" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F61">
         <v>2014</v>
       </c>
       <c r="G61" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H61" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J61" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K61" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="M61" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="N61" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O61" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P61" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="Q61" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="R61" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="T61" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="U61" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="V61" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="W61" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X61" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y61" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z61" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA61" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB61">
         <v>822</v>
@@ -7870,12 +7872,12 @@
         <v>0</v>
       </c>
       <c r="AE61" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B62">
         <v>3811</v>
@@ -7887,61 +7889,61 @@
         <v>3812</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F62">
         <v>2018</v>
       </c>
       <c r="G62" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H62" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I62" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J62" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K62" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="M62" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="N62" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="O62" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P62" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="Q62" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="U62" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="V62" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="W62" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X62" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y62" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z62" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA62" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB62">
         <v>27</v>
@@ -7950,12 +7952,12 @@
         <v>0</v>
       </c>
       <c r="AE62" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B63">
         <v>3811</v>
@@ -7967,61 +7969,61 @@
         <v>3821</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F63">
         <v>2014</v>
       </c>
       <c r="G63" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H63" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I63" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="K63" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="M63" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="N63" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O63" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P63" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="Q63" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="R63" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="T63" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="U63" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="V63" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="W63" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X63" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y63" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z63">
         <v>17</v>
@@ -8036,12 +8038,12 @@
         <v>0</v>
       </c>
       <c r="AE63" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="B64">
         <v>3811</v>
@@ -8053,61 +8055,61 @@
         <v>381000000000</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F64">
         <v>2016</v>
       </c>
       <c r="G64" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H64" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I64" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="K64" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="M64" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="N64" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="O64" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P64" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="Q64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="T64" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="U64" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="V64" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="W64" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X64" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y64" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z64" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA64">
         <v>444.06099999999998</v>
@@ -8119,12 +8121,12 @@
         <v>0</v>
       </c>
       <c r="AE64" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="B65">
         <v>3811</v>
@@ -8133,61 +8135,61 @@
         <v>3811</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F65">
         <v>2016</v>
       </c>
       <c r="G65" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H65" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I65" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J65" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="K65" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="M65" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="N65" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="O65" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P65" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="Q65" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="R65" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="T65" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="U65" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="V65" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="W65" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X65" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y65" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z65">
         <v>7</v>
@@ -8202,12 +8204,12 @@
         <v>0</v>
       </c>
       <c r="AE65" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B66">
         <v>3811</v>
@@ -8216,67 +8218,67 @@
         <v>3811</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F66">
         <v>2015</v>
       </c>
       <c r="G66" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H66" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I66" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K66" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="M66" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="N66" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O66" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P66" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="Q66" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="R66" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="T66" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="U66" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="V66" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="W66" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X66" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y66" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z66" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA66" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB66">
         <v>9</v>
@@ -8285,12 +8287,12 @@
         <v>0</v>
       </c>
       <c r="AE66" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B67">
         <v>3811</v>
@@ -8299,67 +8301,67 @@
         <v>3811</v>
       </c>
       <c r="E67" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F67">
         <v>2012</v>
       </c>
       <c r="G67" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H67" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J67" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="K67" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="M67" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="N67" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="O67" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P67" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="Q67" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="R67" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="T67" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="U67" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="V67" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="W67" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X67" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y67" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z67" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA67" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB67">
         <v>55</v>
@@ -8368,12 +8370,12 @@
         <v>0</v>
       </c>
       <c r="AE67" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="B68">
         <v>3811</v>
@@ -8385,64 +8387,64 @@
         <v>7712</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F68">
         <v>2016</v>
       </c>
       <c r="G68" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H68" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J68" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="K68" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="M68" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="N68" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="O68" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P68" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="Q68" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="R68" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="T68" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="U68" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="V68" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="W68" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X68" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y68" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z68" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA68">
         <v>282.74</v>
@@ -8454,12 +8456,12 @@
         <v>0</v>
       </c>
       <c r="AE68" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="B69">
         <v>3811</v>
@@ -8471,52 +8473,52 @@
         <v>7739</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F69">
         <v>2017</v>
       </c>
       <c r="G69" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H69" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I69" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" t="s">
+        <v>595</v>
+      </c>
+      <c r="M69" t="s">
+        <v>596</v>
+      </c>
+      <c r="N69" t="s">
+        <v>597</v>
+      </c>
+      <c r="O69" t="s">
+        <v>27</v>
+      </c>
+      <c r="P69" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>599</v>
+      </c>
+      <c r="U69" t="s">
+        <v>600</v>
+      </c>
+      <c r="V69" t="s">
+        <v>601</v>
+      </c>
+      <c r="W69" t="s">
         <v>34</v>
       </c>
-      <c r="K69" t="s">
-        <v>606</v>
-      </c>
-      <c r="M69" t="s">
-        <v>607</v>
-      </c>
-      <c r="N69" t="s">
-        <v>608</v>
-      </c>
-      <c r="O69" t="s">
-        <v>38</v>
-      </c>
-      <c r="P69" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>610</v>
-      </c>
-      <c r="U69" t="s">
-        <v>611</v>
-      </c>
-      <c r="V69" t="s">
-        <v>612</v>
-      </c>
-      <c r="W69" t="s">
-        <v>45</v>
-      </c>
       <c r="X69" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y69" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z69">
         <v>1</v>
@@ -8531,12 +8533,12 @@
         <v>0</v>
       </c>
       <c r="AE69" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="B70">
         <v>3811</v>
@@ -8548,61 +8550,61 @@
         <v>38324649</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F70">
         <v>2014</v>
       </c>
       <c r="G70" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H70" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I70" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J70" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="K70" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="M70" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="N70" t="s">
+        <v>597</v>
+      </c>
+      <c r="O70" t="s">
+        <v>27</v>
+      </c>
+      <c r="P70" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q70" t="s">
         <v>608</v>
       </c>
-      <c r="O70" t="s">
-        <v>38</v>
-      </c>
-      <c r="P70" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>619</v>
-      </c>
       <c r="R70" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="T70" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="U70" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="V70" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="W70" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X70" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y70" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z70">
         <v>4</v>
@@ -8617,12 +8619,12 @@
         <v>0</v>
       </c>
       <c r="AE70" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="B71">
         <v>3811</v>
@@ -8631,55 +8633,55 @@
         <v>3811</v>
       </c>
       <c r="E71" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G71" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H71" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I71" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K71" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="M71" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="N71" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="O71" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P71" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="Q71" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="U71" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="V71" s="3">
         <v>3.91E+16</v>
       </c>
       <c r="W71" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X71" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y71" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z71" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA71" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -8690,7 +8692,7 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="B72">
         <v>3811</v>
@@ -8702,58 +8704,58 @@
         <v>4690</v>
       </c>
       <c r="E72" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G72" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H72" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I72" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K72" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="M72" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="N72" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O72" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P72" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="Q72" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="R72" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="U72" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="V72" s="3">
         <v>6.3E+16</v>
       </c>
       <c r="W72" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X72" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y72" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z72" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA72" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB72">
         <v>0</v>
@@ -8764,7 +8766,7 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="B73">
         <v>3811</v>
@@ -8773,55 +8775,55 @@
         <v>3811</v>
       </c>
       <c r="E73" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G73" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H73" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I73" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K73" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="M73" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="N73" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="O73" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P73" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="Q73" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="U73" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="V73" s="3">
         <v>6.36E+16</v>
       </c>
       <c r="W73" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X73" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y73" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z73" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA73" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB73">
         <v>0</v>
@@ -8832,7 +8834,7 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B74">
         <v>3811</v>
@@ -8841,55 +8843,55 @@
         <v>3811</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F74">
         <v>2017</v>
       </c>
       <c r="G74" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H74" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I74" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" t="s">
+        <v>633</v>
+      </c>
+      <c r="M74" t="s">
+        <v>634</v>
+      </c>
+      <c r="N74" t="s">
+        <v>47</v>
+      </c>
+      <c r="O74" t="s">
+        <v>27</v>
+      </c>
+      <c r="P74" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>636</v>
+      </c>
+      <c r="U74" t="s">
+        <v>637</v>
+      </c>
+      <c r="V74" t="s">
+        <v>638</v>
+      </c>
+      <c r="W74" t="s">
         <v>34</v>
       </c>
-      <c r="K74" t="s">
-        <v>644</v>
-      </c>
-      <c r="M74" t="s">
-        <v>645</v>
-      </c>
-      <c r="N74" t="s">
-        <v>58</v>
-      </c>
-      <c r="O74" t="s">
-        <v>38</v>
-      </c>
-      <c r="P74" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>647</v>
-      </c>
-      <c r="U74" t="s">
-        <v>648</v>
-      </c>
-      <c r="V74" t="s">
-        <v>649</v>
-      </c>
-      <c r="W74" t="s">
-        <v>45</v>
-      </c>
       <c r="X74" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y74" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z74" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA74">
         <v>14.994</v>
@@ -8901,12 +8903,12 @@
         <v>0</v>
       </c>
       <c r="AE74" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B75">
         <v>3811</v>
@@ -8918,64 +8920,64 @@
         <v>4647</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F75">
         <v>2017</v>
       </c>
       <c r="G75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J75" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="K75" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="M75" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="N75" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O75" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P75" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="Q75" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="T75" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="U75" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="V75" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="W75" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X75" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB75">
         <v>2</v>
@@ -8984,12 +8986,12 @@
         <v>0</v>
       </c>
       <c r="AE75" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="B76">
         <v>3811</v>
@@ -9001,61 +9003,61 @@
         <v>38313832</v>
       </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F76">
         <v>2017</v>
       </c>
       <c r="G76" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H76" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I76" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J76" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K76" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="M76" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="N76" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O76" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P76" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="Q76" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="U76" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="V76" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="W76" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X76" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y76" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z76" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA76" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB76">
         <v>9</v>
@@ -9064,12 +9066,12 @@
         <v>0</v>
       </c>
       <c r="AE76" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B77">
         <v>3812</v>
@@ -9081,67 +9083,67 @@
         <v>4519</v>
       </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F77">
         <v>2017</v>
       </c>
       <c r="G77" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H77">
         <v>64</v>
       </c>
       <c r="I77" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J77" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K77" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="M77" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="N77" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="O77" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P77" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="Q77" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="R77" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="T77" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="U77" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="V77" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="W77" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X77" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y77" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z77">
         <v>64</v>
       </c>
       <c r="AA77" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB77">
         <v>27</v>
@@ -9150,12 +9152,12 @@
         <v>0</v>
       </c>
       <c r="AE77" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B78">
         <v>3812</v>
@@ -9164,67 +9166,67 @@
         <v>3812</v>
       </c>
       <c r="E78" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F78">
         <v>2018</v>
       </c>
       <c r="G78" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H78" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I78" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J78" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K78" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="M78" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="N78" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="O78" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P78" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="Q78" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="R78" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="T78" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="U78" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="V78" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="W78" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X78" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y78" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z78" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA78" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AB78">
         <v>27</v>
@@ -9233,12 +9235,12 @@
         <v>0</v>
       </c>
       <c r="AE78" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="B79">
         <v>3812</v>
@@ -9247,61 +9249,61 @@
         <v>3812</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F79">
         <v>2017</v>
       </c>
       <c r="G79" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H79" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I79" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="K79" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="M79" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="N79" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="O79" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P79" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="Q79" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="R79" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="U79" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="V79" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="W79" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X79" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Y79" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z79" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AA79">
         <v>299.68400000000003</v>
@@ -9313,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="AE79" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
